--- a/Data_Set/Payscale.xlsx
+++ b/Data_Set/Payscale.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AIS_STUFF\SUBJEK PENGAJARAN\MANB1123_Business Stat for DS\Data Set\excel_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6919378-C1FC-477A-808D-06DBAD969273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="45" windowWidth="9405" windowHeight="4875" activeTab="1"/>
+    <workbookView xWindow="828" yWindow="120" windowWidth="22080" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Column A:  Customer Number</t>
   </si>
@@ -42,11 +48,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -58,38 +64,20 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,37 +94,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,6 +129,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -194,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +213,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,6 +265,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,422 +457,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="1" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>87603</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>59881</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>84574</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>64907</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>90507</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>59627</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>103045</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>70879</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>93510</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>64608</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>113013</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>65366</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>83427</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>75593</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>87783</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>71442</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>85848</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>68469</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>87578</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>77872</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>97105</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>68058</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>100998</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>75949</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>97562</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>68803</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>93253</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>69421</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>93625</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>74466</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>95893</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>65781</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>73898</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>75185</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>90267</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>68130</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>91873</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>60322</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>95300</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>68336</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>86727</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>71869</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>93289</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>61190</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>100061</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>74045</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>97872</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>62144</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>96485</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>72590</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>82925</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>77118</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>87684</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>60248</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>84237</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>59069</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>96960</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>64131</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>80735</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>67559</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>95153</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>68175</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>107681</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>67508</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>85643</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>71273</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>89636</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>80416</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>93360</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>69697</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>87180</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>64275</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>86584</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>72185</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>87169</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>76313</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>74225</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>72583</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>83539</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>66851</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>101316</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>63516</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>92857</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>73935</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
         <v>98025</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>71321</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>79476</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>64863</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
         <v>90486</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>69429</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>81233</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>74249</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
         <v>99413</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>63982</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>96250</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>67462</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
         <v>88312</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>66900</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>89550</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>73056</v>
       </c>
     </row>
@@ -865,26 +887,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -892,7 +914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
